--- a/myth/quiz/xlsx/slavic_myth.xlsx
+++ b/myth/quiz/xlsx/slavic_myth.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="101">
   <si>
     <t>textQue</t>
   </si>
@@ -219,9 +219,6 @@
     <t>Где по славянским поверьям обитает Баба-Яга?</t>
   </si>
   <si>
-    <t>Кто хозяин лесной чащи и всех зверей в ней?</t>
-  </si>
-  <si>
     <t>Леший</t>
   </si>
   <si>
@@ -277,6 +274,51 @@
   </si>
   <si>
     <t>Старославянский дух сновидений упоминается в колыбельных песнях в образе «доброй старушки с ласковыми руками»</t>
+  </si>
+  <si>
+    <t>Где по славянским поверьям можно найти Ледащего?</t>
+  </si>
+  <si>
+    <t>В соломе</t>
+  </si>
+  <si>
+    <t>В лесу</t>
+  </si>
+  <si>
+    <t>Во льду</t>
+  </si>
+  <si>
+    <t>В погребе</t>
+  </si>
+  <si>
+    <t>В поле</t>
+  </si>
+  <si>
+    <t>В бане</t>
+  </si>
+  <si>
+    <t>Кто хозяин лесной чащи и всех лесных зверей?</t>
+  </si>
+  <si>
+    <t>Водяной</t>
+  </si>
+  <si>
+    <t>Полевой</t>
+  </si>
+  <si>
+    <t>Это существо следит за тем, чтобы печь не топили невовремя</t>
+  </si>
+  <si>
+    <t>Овинник</t>
+  </si>
+  <si>
+    <t>Печник</t>
+  </si>
+  <si>
+    <t>Банник</t>
+  </si>
+  <si>
+    <t>Живет в овинах - строениях, где сушат снопы и не позволяет топить там печь в церковные праздники и в ветреную погоду</t>
   </si>
 </sst>
 </file>
@@ -633,7 +675,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -782,7 +824,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -923,14 +965,32 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="3" t="s">
-        <v>32</v>
+      <c r="A15" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
       </c>
       <c r="D15" t="s">
         <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1036,119 +1096,157 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
         <v>67</v>
       </c>
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" t="s">
-        <v>68</v>
+      <c r="F22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
         <v>69</v>
-      </c>
-      <c r="C23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
         <v>77</v>
       </c>
-      <c r="B24" t="s">
-        <v>78</v>
-      </c>
       <c r="C24" t="s">
         <v>31</v>
       </c>
       <c r="D24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" t="s">
         <v>71</v>
-      </c>
-      <c r="E24" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
         <v>73</v>
-      </c>
-      <c r="C25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
         <v>81</v>
-      </c>
-      <c r="C27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
         <v>84</v>
       </c>
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" t="s">
+        <v>100</v>
+      </c>
       <c r="C29" t="s">
         <v>31</v>
       </c>
       <c r="D29" t="s">
         <v>31</v>
+      </c>
+      <c r="E29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" t="s">
+        <v>98</v>
+      </c>
+      <c r="J29" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:10">

--- a/myth/quiz/xlsx/slavic_myth.xlsx
+++ b/myth/quiz/xlsx/slavic_myth.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="201">
   <si>
     <t>textQue</t>
   </si>
@@ -36,9 +36,6 @@
     <t>wrAns</t>
   </si>
   <si>
-    <t>Чем у древних славян была избушка на курьих ножках?</t>
-  </si>
-  <si>
     <t>Каким был любимый облик Велеса?</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>В русском фольклоре Лысой горой называли возвышенности, где ведьмы устраивали шабаши и проводили тёмные ритуалы.</t>
   </si>
   <si>
-    <t>Место шабаша ведьм</t>
-  </si>
-  <si>
     <t>Кто охранял Калинов мост и противостоял богатырям?</t>
   </si>
   <si>
@@ -93,9 +87,6 @@
     <t>Какое животное считалось священным у славян?</t>
   </si>
   <si>
-    <t>Прототипом избушки Бабы-Яги стали славянские «дома мертвых». Это была прямоугольная постройка из бревен, которую ставили на специальные опоры-столбы. Внутрь помещали прах человека, предварительно кремированного в другом месте.</t>
-  </si>
-  <si>
     <t>Дом мертвых</t>
   </si>
   <si>
@@ -114,27 +105,9 @@
     <t>no_pic</t>
   </si>
   <si>
-    <t>Где по славянским поверьям обитали ….</t>
-  </si>
-  <si>
     <t>Покровителем чего считалось женское божество Мокошь?</t>
   </si>
   <si>
-    <t>прядением и ткачеством</t>
-  </si>
-  <si>
-    <t>гончарного дела</t>
-  </si>
-  <si>
-    <t>В славянской мифологии свадьбам покравительствовали Дажьбог и Лада</t>
-  </si>
-  <si>
-    <t>Дажьбог и Лада</t>
-  </si>
-  <si>
-    <t>Какие божества славянской мифологии покровительствовали свадьбам?</t>
-  </si>
-  <si>
     <t>Мавка</t>
   </si>
   <si>
@@ -150,9 +123,6 @@
     <t>Славянская богиня смерти, холода и мрака, связана с сезонными аграрными обрядами, основанными на идее смерти и возрождения природы.</t>
   </si>
   <si>
-    <t>Морена</t>
-  </si>
-  <si>
     <t>Как быть, если домовой начал пакостить?</t>
   </si>
   <si>
@@ -258,9 +228,6 @@
     <t>Какой нечистый дух приживаясь возле человека, быстро разоряет его пьянством и заставляет бродяжничать?</t>
   </si>
   <si>
-    <t>Этот кот-колдун напускает своим мурлыканьем на плохих людей - кошмары, на хороших – сладкие сны?</t>
-  </si>
-  <si>
     <t>Кот Баюн</t>
   </si>
   <si>
@@ -319,6 +286,339 @@
   </si>
   <si>
     <t>Живет в овинах - строениях, где сушат снопы и не позволяет топить там печь в церковные праздники и в ветреную погоду</t>
+  </si>
+  <si>
+    <t>Постоялый двор</t>
+  </si>
+  <si>
+    <t>Чем у древних славян на самом деле была избушка на курьих ножках?</t>
+  </si>
+  <si>
+    <t>Прототипом избушки Бабы-Яги стали славянские дома мертвых - прямоугольная постройка из бревен, которую ставили на специальные опоры-столбы. Внутрь помещали прах человека</t>
+  </si>
+  <si>
+    <t>Кузница</t>
+  </si>
+  <si>
+    <t>Амбар</t>
+  </si>
+  <si>
+    <t>Совятник</t>
+  </si>
+  <si>
+    <t>Волк</t>
+  </si>
+  <si>
+    <t>Сокол</t>
+  </si>
+  <si>
+    <t>Сом</t>
+  </si>
+  <si>
+    <t>Уж</t>
+  </si>
+  <si>
+    <t>Заяц</t>
+  </si>
+  <si>
+    <t>sm_izba.webp</t>
+  </si>
+  <si>
+    <t>sm_veles.webp</t>
+  </si>
+  <si>
+    <t>sm_lysgora.webp</t>
+  </si>
+  <si>
+    <t>Кладбище</t>
+  </si>
+  <si>
+    <t>Лобное место</t>
+  </si>
+  <si>
+    <t>Место шабаша</t>
+  </si>
+  <si>
+    <t>Дом Кощея</t>
+  </si>
+  <si>
+    <t>Место сражений</t>
+  </si>
+  <si>
+    <t>pic245</t>
+  </si>
+  <si>
+    <t>pic32</t>
+  </si>
+  <si>
+    <t>pic234</t>
+  </si>
+  <si>
+    <t>Марена</t>
+  </si>
+  <si>
+    <t>pic53</t>
+  </si>
+  <si>
+    <t>pic236</t>
+  </si>
+  <si>
+    <t>pic242</t>
+  </si>
+  <si>
+    <t>sm_yaga.webp</t>
+  </si>
+  <si>
+    <t>pic310</t>
+  </si>
+  <si>
+    <t>pic311</t>
+  </si>
+  <si>
+    <t>pic134</t>
+  </si>
+  <si>
+    <t>pic241</t>
+  </si>
+  <si>
+    <t>pic45</t>
+  </si>
+  <si>
+    <t>pic50</t>
+  </si>
+  <si>
+    <t>pic312</t>
+  </si>
+  <si>
+    <t>pic284</t>
+  </si>
+  <si>
+    <t>sm_domovoy.webp</t>
+  </si>
+  <si>
+    <t>sm_medved.webp</t>
+  </si>
+  <si>
+    <t>sm_masl.webp</t>
+  </si>
+  <si>
+    <t>Какое божество в славянской мифологии покровительствовало новобрачным?</t>
+  </si>
+  <si>
+    <t>Богиня весны, красоты и любви, покровительница брака, считалась воплощением женского начала, воплощением семейного счастья и продолжения рода</t>
+  </si>
+  <si>
+    <t>Лада</t>
+  </si>
+  <si>
+    <t>Велес</t>
+  </si>
+  <si>
+    <t>Берегиня</t>
+  </si>
+  <si>
+    <t>Ярило</t>
+  </si>
+  <si>
+    <t>sm_lada.webp</t>
+  </si>
+  <si>
+    <t>sm_mokosh.webp</t>
+  </si>
+  <si>
+    <t>sm_perun.webp</t>
+  </si>
+  <si>
+    <t>Дворовой</t>
+  </si>
+  <si>
+    <t>Крещение</t>
+  </si>
+  <si>
+    <t>Радуница</t>
+  </si>
+  <si>
+    <t>Красная горка</t>
+  </si>
+  <si>
+    <t>Покров</t>
+  </si>
+  <si>
+    <t>Световит</t>
+  </si>
+  <si>
+    <t>Полудница</t>
+  </si>
+  <si>
+    <t>Полуночница</t>
+  </si>
+  <si>
+    <t>Навь</t>
+  </si>
+  <si>
+    <t>Шишига</t>
+  </si>
+  <si>
+    <t>Мара</t>
+  </si>
+  <si>
+    <t>Белка</t>
+  </si>
+  <si>
+    <t>Бобер</t>
+  </si>
+  <si>
+    <t>Лиса</t>
+  </si>
+  <si>
+    <t>Вила</t>
+  </si>
+  <si>
+    <t>прядение и ткачество</t>
+  </si>
+  <si>
+    <t>гончарное дело</t>
+  </si>
+  <si>
+    <t>охота</t>
+  </si>
+  <si>
+    <t>рыбалка</t>
+  </si>
+  <si>
+    <t>столярное дело</t>
+  </si>
+  <si>
+    <t>ковка металла</t>
+  </si>
+  <si>
+    <t>Мокошь</t>
+  </si>
+  <si>
+    <t>Девана</t>
+  </si>
+  <si>
+    <t>Леля</t>
+  </si>
+  <si>
+    <t>Денница</t>
+  </si>
+  <si>
+    <t>Сварог</t>
+  </si>
+  <si>
+    <t>Дажьбог</t>
+  </si>
+  <si>
+    <t>Стрибог</t>
+  </si>
+  <si>
+    <t>Чудо-Юдо</t>
+  </si>
+  <si>
+    <t>Врыколак</t>
+  </si>
+  <si>
+    <t>Великий Полоз</t>
+  </si>
+  <si>
+    <t>Лихо одноглазое</t>
+  </si>
+  <si>
+    <t>Моховой</t>
+  </si>
+  <si>
+    <t>Пушевик</t>
+  </si>
+  <si>
+    <t>Боли-бошка</t>
+  </si>
+  <si>
+    <t>Листин</t>
+  </si>
+  <si>
+    <t>Воструха</t>
+  </si>
+  <si>
+    <t>Вазила</t>
+  </si>
+  <si>
+    <t>Волосень</t>
+  </si>
+  <si>
+    <t>Барабашка</t>
+  </si>
+  <si>
+    <t>Коргоруши</t>
+  </si>
+  <si>
+    <t>Ырка</t>
+  </si>
+  <si>
+    <t>Уркут</t>
+  </si>
+  <si>
+    <t>Гамаюн</t>
+  </si>
+  <si>
+    <t>Стржига</t>
+  </si>
+  <si>
+    <t>Чёрт</t>
+  </si>
+  <si>
+    <t>Жевжик</t>
+  </si>
+  <si>
+    <t>Зюзя</t>
+  </si>
+  <si>
+    <t>Житень</t>
+  </si>
+  <si>
+    <t>Баюн</t>
+  </si>
+  <si>
+    <t>Лоскотуха</t>
+  </si>
+  <si>
+    <t>Ирусан</t>
+  </si>
+  <si>
+    <t>Котофей</t>
+  </si>
+  <si>
+    <t>Базилио</t>
+  </si>
+  <si>
+    <t>Кот в сапогах</t>
+  </si>
+  <si>
+    <t>У кого недостаточно сил противостоять его волшебству, кот - колдун убивает железными когтями. Но тот, кто сможет устоять, найдёт спасение от всех болезней и недугов</t>
+  </si>
+  <si>
+    <t>Этот кот-колдун заговаривает и усыпляет своими мурлыканием подошедших путников?</t>
+  </si>
+  <si>
+    <t>Трясовицы (Лихора́дка, Лихоманка) - русские демоны болезни, упоминаемые в заговорах</t>
+  </si>
+  <si>
+    <t>Обитает в жилище человека и в других постройках, ее появление считается признаком того, что в доме «нечисто», неблагополучно</t>
+  </si>
+  <si>
+    <t>Дух-хозяин леса в мифологии восточных славян</t>
+  </si>
+  <si>
+    <t>Смерть Кощея находится вне его тела и спрятана во вложенных друг в друга предметах, Кощей умирает, когда уничтожаются эти предметы</t>
+  </si>
+  <si>
+    <t>Дух соломы, который всю зиму проводит во сне, весной просыпается и всё лето ждет новую спячку в копне свежей соломы</t>
+  </si>
+  <si>
+    <t>стоит тесная избушка на курьих ножках, а ограда вокруг избушки состоит из человеческих костей и черепов</t>
+  </si>
+  <si>
+    <t>Домашний дух, хозяин и покровитель дома, обеспечивающий нормальную жизнь семьи, плодородие, здоровье людей и животных</t>
   </si>
 </sst>
 </file>
@@ -344,18 +644,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -370,13 +664,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -672,16 +965,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="90.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -724,569 +1018,816 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>106</v>
+      </c>
+      <c r="F4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" t="s">
+        <v>146</v>
+      </c>
+      <c r="J8" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I9" t="s">
+        <v>149</v>
+      </c>
+      <c r="J9" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>153</v>
+      </c>
+      <c r="G10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H10" t="s">
+        <v>155</v>
+      </c>
+      <c r="I10" t="s">
+        <v>156</v>
+      </c>
+      <c r="J10" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>130</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" t="s">
+        <v>132</v>
+      </c>
+      <c r="J11" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H12" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>112</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" t="s">
+        <v>159</v>
+      </c>
+      <c r="I13" t="s">
+        <v>160</v>
+      </c>
+      <c r="J13" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>199</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I14" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J14" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="4" t="s">
-        <v>86</v>
+      <c r="A15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
+        <v>198</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="3" t="s">
-        <v>32</v>
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>125</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="3" t="s">
-        <v>32</v>
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>136</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" t="s">
+        <v>162</v>
+      </c>
+      <c r="H17" t="s">
+        <v>163</v>
+      </c>
+      <c r="I17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>45</v>
+      <c r="A18" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>197</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="H18" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="I18" t="s">
-        <v>50</v>
+        <v>167</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
         <v>55</v>
       </c>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="E19" t="s">
         <v>53</v>
       </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H19" t="s">
+        <v>170</v>
+      </c>
+      <c r="I19" t="s">
+        <v>171</v>
+      </c>
+      <c r="J19" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" t="s">
+        <v>187</v>
+      </c>
+      <c r="H21" t="s">
+        <v>173</v>
+      </c>
+      <c r="I21" t="s">
+        <v>174</v>
+      </c>
+      <c r="J21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H22" t="s">
+        <v>177</v>
+      </c>
+      <c r="I22" t="s">
+        <v>171</v>
+      </c>
+      <c r="J22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="4" t="s">
+      <c r="B23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" t="s">
         <v>64</v>
       </c>
-      <c r="B21" t="s">
+      <c r="I23" t="s">
+        <v>178</v>
+      </c>
+      <c r="J23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
         <v>65</v>
       </c>
-      <c r="C21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" t="s">
+        <v>181</v>
+      </c>
+      <c r="H24" t="s">
+        <v>182</v>
+      </c>
+      <c r="I24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" t="s">
+        <v>186</v>
+      </c>
+      <c r="F25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" t="s">
+        <v>188</v>
+      </c>
+      <c r="H25" t="s">
+        <v>191</v>
+      </c>
+      <c r="I25" t="s">
+        <v>189</v>
+      </c>
+      <c r="J25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" t="s">
+        <v>181</v>
+      </c>
+      <c r="I26" t="s">
+        <v>183</v>
+      </c>
+      <c r="J26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" t="s">
         <v>19</v>
       </c>
-      <c r="H22" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" t="s">
-        <v>95</v>
-      </c>
-      <c r="J22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" t="s">
-        <v>97</v>
-      </c>
-      <c r="F29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" t="s">
-        <v>99</v>
-      </c>
-      <c r="I29" t="s">
-        <v>98</v>
-      </c>
-      <c r="J29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="C30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="C31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="C32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4">
-      <c r="C33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4">
-      <c r="C34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" t="s">
-        <v>31</v>
+      <c r="H27" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" t="s">
+        <v>175</v>
+      </c>
+      <c r="J27" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
